--- a/PEA/wynikibnb.xlsx
+++ b/PEA/wynikibnb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\Documents\Studia\PEA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sawic\Documents\Studia\PEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDA0984-5E16-4430-87D4-1F1E51095454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75A8900-F6C8-4D37-97E1-41185A2CCD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E48CB5A3-63C3-406D-8478-A2480EFCBC48}"/>
+    <workbookView xWindow="-15075" yWindow="5970" windowWidth="21600" windowHeight="11385" xr2:uid="{E48CB5A3-63C3-406D-8478-A2480EFCBC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -449,19 +449,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3E145D-8F23-4D0C-809A-83CF928A0FCA}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -477,7 +478,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -485,15 +486,19 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>9.4000000000000004E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f>B4/1000</f>
+        <v>9.3999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -501,7 +506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -509,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -517,7 +522,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -525,15 +530,19 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10">
         <v>3.0499999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>B10/1000</f>
+        <v>3.0499999999999999E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -541,7 +550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -549,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -557,7 +566,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -565,15 +574,19 @@
         <v>433</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16">
         <v>0.433</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>B16/1000</f>
+        <v>4.3300000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -581,7 +594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -589,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -597,7 +610,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -605,15 +618,19 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22">
         <v>2.0099999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f>B22/1000</f>
+        <v>2.0099999999999996E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -621,7 +638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -629,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -637,7 +654,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -645,15 +662,19 @@
         <v>5040</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28">
         <v>5.04</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f>B28/1000</f>
+        <v>5.0400000000000002E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -661,7 +682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -669,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -677,7 +698,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -685,15 +706,19 @@
         <v>25700</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>B34/1000</f>
+        <v>2.5700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -701,7 +726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -709,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -717,7 +742,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -725,15 +750,19 @@
         <v>15900</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f>B40/1000</f>
+        <v>1.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -741,7 +770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -749,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -757,7 +786,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -765,15 +794,19 @@
         <v>12700000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="1">
         <v>12700</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f>B46/1000</f>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -781,7 +814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -789,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -797,7 +830,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -805,15 +838,19 @@
         <v>9550000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="1">
         <v>9550</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f>B52/1000</f>
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
